--- a/Result/checksun/油電燃氣業.xlsx
+++ b/Result/checksun/油電燃氣業.xlsx
@@ -722,20 +722,20 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D2" t="n">
-        <v>-26</v>
+        <v>-1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -941,16 +941,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
         <v>5</v>
       </c>
-      <c r="B3" t="n">
-        <v>35</v>
-      </c>
       <c r="C3" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1160,20 +1160,20 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>-25</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -1379,20 +1379,20 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -1598,16 +1598,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
         <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1820,13 +1820,13 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -2036,20 +2036,20 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -2255,16 +2255,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -2477,17 +2477,17 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -3130,13 +3130,13 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -3349,17 +3349,17 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C14" t="n">
         <v>-2</v>
       </c>
       <c r="D14" t="n">
-        <v>-2</v>
+        <v>-12</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -3566,17 +3566,17 @@
         <v>2</v>
       </c>
       <c r="B15" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -3785,17 +3785,17 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-26</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -4004,17 +4004,17 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -4223,17 +4223,17 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-9</v>
+        <v>-21</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -4442,17 +4442,17 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>61</v>
+        <v>-3</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -4661,13 +4661,13 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -4880,17 +4880,17 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -5533,17 +5533,17 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="C24" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-12</v>
+        <v>-4</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -5749,20 +5749,20 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>-10</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -5968,16 +5968,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6190,17 +6190,17 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-8</v>
+        <v>10</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -6409,13 +6409,13 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -6847,17 +6847,17 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D30" t="n">
-        <v>48</v>
+        <v>-6</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -7061,16 +7061,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -7283,17 +7283,17 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -7933,16 +7933,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B35" t="n">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C35" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>-12</v>
+        <v>-16</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -8164,16 +8164,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -8394,13 +8394,13 @@
         <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -8621,13 +8621,13 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -8840,13 +8840,13 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -9059,13 +9059,13 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -9278,17 +9278,17 @@
         <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -9716,17 +9716,17 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -10369,13 +10369,13 @@
         <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -10588,13 +10588,13 @@
         <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -10807,13 +10807,13 @@
         <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C48" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -11023,16 +11023,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -11242,16 +11242,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -11461,20 +11461,20 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D51" t="n">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -11680,20 +11680,20 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>46</v>
+        <v>-11</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -11902,13 +11902,13 @@
         <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -12121,17 +12121,17 @@
         <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -12790,13 +12790,13 @@
         <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -13009,13 +13009,13 @@
         <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C58" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -13225,16 +13225,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C59" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -13444,16 +13444,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -13666,13 +13666,13 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D61" t="n">
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -13882,20 +13882,20 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B62" t="n">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>-4</v>
+        <v>-14</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -14104,17 +14104,17 @@
         <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>79</v>
+        <v>-9</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -14323,17 +14323,17 @@
         <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -14539,20 +14539,20 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -15192,20 +15192,20 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -15426,13 +15426,13 @@
         <v>4</v>
       </c>
       <c r="B69" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C69" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -15654,13 +15654,13 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B70" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -15885,20 +15885,20 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B71" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -16116,13 +16116,13 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B72" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
         <v>-1</v>
@@ -16339,13 +16339,13 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B73" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -16565,13 +16565,13 @@
         <v>-1</v>
       </c>
       <c r="B74" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C74" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -16785,13 +16785,13 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -17016,20 +17016,20 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -17697,16 +17697,16 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B79" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -17916,16 +17916,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="B80" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -18135,16 +18135,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="B81" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -18357,17 +18357,17 @@
         <v>-2</v>
       </c>
       <c r="B82" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C82" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D82" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -18573,16 +18573,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B83" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -18795,13 +18795,13 @@
         <v>0</v>
       </c>
       <c r="B84" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -19011,16 +19011,16 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C85" t="n">
         <v>-1</v>
       </c>
       <c r="D85" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -19230,16 +19230,16 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -19449,20 +19449,20 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -20118,20 +20118,20 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -20336,13 +20336,13 @@
         <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -21190,17 +21190,17 @@
         <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -22480,17 +22480,17 @@
         <v>0</v>
       </c>
       <c r="B101" t="n">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C101" t="n">
         <v>-1</v>
       </c>
       <c r="D101" t="n">
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -22699,13 +22699,13 @@
         <v>1</v>
       </c>
       <c r="B102" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C102" t="n">
         <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -22918,13 +22918,13 @@
         <v>0</v>
       </c>
       <c r="B103" t="n">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>-11</v>
+        <v>-17</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -23137,13 +23137,13 @@
         <v>0</v>
       </c>
       <c r="B104" t="n">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -23356,7 +23356,7 @@
         <v>0</v>
       </c>
       <c r="B105" t="n">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -23575,13 +23575,13 @@
         <v>0</v>
       </c>
       <c r="B106" t="n">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -23794,17 +23794,17 @@
         <v>0</v>
       </c>
       <c r="B107" t="n">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>82</v>
+        <v>-6</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
@@ -24013,17 +24013,17 @@
         <v>0</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
@@ -24232,17 +24232,17 @@
         <v>0</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
@@ -24906,20 +24906,20 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B112" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C112" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D112" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
@@ -25125,16 +25125,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B113" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C113" t="n">
         <v>3</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -25344,20 +25344,20 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B114" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C114" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F114" t="inlineStr"/>
@@ -25563,20 +25563,20 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="B115" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C115" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="D115" t="n">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F115" t="inlineStr"/>
@@ -25782,20 +25782,20 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B116" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C116" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D116" t="n">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
@@ -26001,20 +26001,20 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="B117" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C117" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="D117" t="n">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
@@ -26220,20 +26220,20 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="B118" t="n">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C118" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="D118" t="n">
-        <v>53</v>
+        <v>-7</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F118" t="inlineStr"/>
@@ -26442,17 +26442,17 @@
         <v>0</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
@@ -26661,17 +26661,17 @@
         <v>0</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
@@ -27311,20 +27311,20 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B123" t="n">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="C123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D123" t="n">
-        <v>-12</v>
+        <v>-5</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F123" t="inlineStr"/>
@@ -27528,20 +27528,20 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B124" t="n">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="C124" t="n">
         <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F124" t="inlineStr"/>
@@ -27745,20 +27745,20 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="B125" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C125" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>8</v>
+        <v>-11</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F125" t="inlineStr"/>
@@ -27962,16 +27962,16 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B126" t="n">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D126" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -28179,20 +28179,20 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B127" t="n">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D127" t="n">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F127" t="inlineStr"/>
@@ -28396,16 +28396,16 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B128" t="n">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C128" t="n">
         <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -28613,20 +28613,20 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B129" t="n">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C129" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>47</v>
+        <v>-12</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
@@ -28833,17 +28833,17 @@
         <v>0</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F130" t="inlineStr"/>
@@ -29047,20 +29047,20 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F131" t="inlineStr"/>
